--- a/ZOI_assay_sample_log_082923_LEM_controlsduplicated.xlsx
+++ b/ZOI_assay_sample_log_082923_LEM_controlsduplicated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/lindsay_e_martin_vanderbilt_edu/Documents/Hillyer_Lab/Lytic_Immunity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{8509A507-B73D-4F3B-84DF-0CB1403F1211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43F3222F-CF74-4ED6-B71B-8278333F5CF2}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{8509A507-B73D-4F3B-84DF-0CB1403F1211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3529AD05-2E17-4492-A5A8-5FE555145037}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C76B092A-304A-4B8A-83AC-7B0685E64EF6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="zoi_assays" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zoi_assays!$A$1:$AA$469</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zoi_assays!$A$1:$AA$866</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -608,11 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE02A8E2-55D4-4C00-B027-F30C5B4D1901}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A849" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z866" sqref="Z866"/>
     </sheetView>
   </sheetViews>
@@ -718,7 +717,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -801,7 +800,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -884,7 +883,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -967,7 +966,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1133,7 +1132,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1216,7 +1215,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1299,7 +1298,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1465,7 +1464,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="11" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1548,7 +1547,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1797,7 +1796,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1880,7 +1879,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1963,7 +1962,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2046,7 +2045,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2212,7 +2211,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2295,7 +2294,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2461,7 +2460,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3042,7 +3041,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3125,7 +3124,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3291,7 +3290,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3457,7 +3456,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3540,7 +3539,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3706,7 +3705,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3789,7 +3788,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>1</v>
       </c>
@@ -4035,7 +4034,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1</v>
       </c>
@@ -4118,7 +4117,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1</v>
       </c>
@@ -4201,7 +4200,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1</v>
       </c>
@@ -4284,7 +4283,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>1</v>
       </c>
@@ -4367,7 +4366,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1</v>
       </c>
@@ -4533,7 +4532,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1</v>
       </c>
@@ -4616,7 +4615,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>1</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1</v>
       </c>
@@ -4782,7 +4781,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>1</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1</v>
       </c>
@@ -5028,7 +5027,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>1</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>1</v>
       </c>
@@ -5277,7 +5276,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>1</v>
       </c>
@@ -5360,7 +5359,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1</v>
       </c>
@@ -5443,7 +5442,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>1</v>
       </c>
@@ -5526,7 +5525,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>1</v>
       </c>
@@ -5692,7 +5691,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>1</v>
       </c>
@@ -5775,7 +5774,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>1</v>
       </c>
@@ -5858,7 +5857,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>1</v>
       </c>
@@ -5941,7 +5940,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>1</v>
       </c>
@@ -6104,7 +6103,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>1</v>
       </c>
@@ -6187,7 +6186,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>1</v>
       </c>
@@ -6270,7 +6269,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>1</v>
       </c>
@@ -6353,7 +6352,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>1</v>
       </c>
@@ -6436,7 +6435,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>1</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>1</v>
       </c>
@@ -6602,7 +6601,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>1</v>
       </c>
@@ -6685,7 +6684,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>1</v>
       </c>
@@ -6768,7 +6767,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>1</v>
       </c>
@@ -6851,7 +6850,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>1</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>1</v>
       </c>
@@ -7017,7 +7016,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>1</v>
       </c>
@@ -7180,7 +7179,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>1</v>
       </c>
@@ -7263,7 +7262,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="4" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:27" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>1</v>
       </c>
@@ -7346,7 +7345,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>1</v>
       </c>
@@ -7429,7 +7428,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>1</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>1</v>
       </c>
@@ -7595,7 +7594,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>1</v>
       </c>
@@ -7678,7 +7677,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>1</v>
       </c>
@@ -7761,7 +7760,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>1</v>
       </c>
@@ -7844,7 +7843,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>1</v>
       </c>
@@ -7927,7 +7926,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>1</v>
       </c>
@@ -8010,7 +8009,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>1</v>
       </c>
@@ -8093,7 +8092,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>1</v>
       </c>
@@ -8256,7 +8255,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>1</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>1</v>
       </c>
@@ -8422,7 +8421,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>1</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>1</v>
       </c>
@@ -8588,7 +8587,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>1</v>
       </c>
@@ -8671,7 +8670,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>1</v>
       </c>
@@ -8754,7 +8753,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>1</v>
       </c>
@@ -8837,7 +8836,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>1</v>
       </c>
@@ -8920,7 +8919,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>1</v>
       </c>
@@ -9003,7 +9002,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>1</v>
       </c>
@@ -9086,7 +9085,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>1</v>
       </c>
@@ -9169,7 +9168,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>1</v>
       </c>
@@ -9332,7 +9331,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>1</v>
       </c>
@@ -9415,7 +9414,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>1</v>
       </c>
@@ -9498,7 +9497,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>1</v>
       </c>
@@ -9581,7 +9580,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>1</v>
       </c>
@@ -9664,7 +9663,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>1</v>
       </c>
@@ -9747,7 +9746,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>1</v>
       </c>
@@ -9830,7 +9829,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>1</v>
       </c>
@@ -9913,7 +9912,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>1</v>
       </c>
@@ -9996,7 +9995,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>1</v>
       </c>
@@ -10079,7 +10078,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>1</v>
       </c>
@@ -10162,7 +10161,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>1</v>
       </c>
@@ -10245,7 +10244,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>1</v>
       </c>
@@ -10408,7 +10407,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>1</v>
       </c>
@@ -10491,7 +10490,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>1</v>
       </c>
@@ -10574,7 +10573,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="121" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1</v>
       </c>
@@ -10657,7 +10656,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="122" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1</v>
       </c>
@@ -10740,7 +10739,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="123" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1</v>
       </c>
@@ -10823,7 +10822,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="124" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1</v>
       </c>
@@ -10906,7 +10905,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="125" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1</v>
       </c>
@@ -10989,7 +10988,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="126" spans="1:27" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="7">
         <v>1</v>
       </c>
@@ -11072,7 +11071,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="127" spans="1:27" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="7">
         <v>1</v>
       </c>
@@ -11155,7 +11154,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="128" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1</v>
       </c>
@@ -11238,7 +11237,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="129" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1</v>
       </c>
@@ -11321,7 +11320,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="130" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1</v>
       </c>
@@ -11484,7 +11483,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="132" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1</v>
       </c>
@@ -11567,7 +11566,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="133" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1</v>
       </c>
@@ -11650,7 +11649,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="134" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1</v>
       </c>
@@ -11733,7 +11732,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="135" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1</v>
       </c>
@@ -11816,7 +11815,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="136" spans="1:27" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>1</v>
       </c>
@@ -11899,7 +11898,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="137" spans="1:27" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>1</v>
       </c>
@@ -11982,7 +11981,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="138" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1</v>
       </c>
@@ -12065,7 +12064,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="139" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1</v>
       </c>
@@ -12148,7 +12147,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="140" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1</v>
       </c>
@@ -12231,7 +12230,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="141" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1</v>
       </c>
@@ -12314,7 +12313,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="142" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1</v>
       </c>
@@ -12397,7 +12396,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="143" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1</v>
       </c>
@@ -12560,7 +12559,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="145" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1</v>
       </c>
@@ -12643,7 +12642,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="146" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1</v>
       </c>
@@ -12726,7 +12725,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="147" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1</v>
       </c>
@@ -12809,7 +12808,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="148" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1</v>
       </c>
@@ -12892,7 +12891,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="149" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1</v>
       </c>
@@ -12975,7 +12974,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="150" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1</v>
       </c>
@@ -13058,7 +13057,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="151" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1</v>
       </c>
@@ -13141,7 +13140,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="152" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1</v>
       </c>
@@ -13224,7 +13223,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="153" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1</v>
       </c>
@@ -13307,7 +13306,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="154" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1</v>
       </c>
@@ -13390,7 +13389,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="155" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1</v>
       </c>
@@ -13473,7 +13472,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="156" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1</v>
       </c>
@@ -13636,7 +13635,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="158" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1</v>
       </c>
@@ -13719,7 +13718,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="159" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1</v>
       </c>
@@ -13802,7 +13801,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="160" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1</v>
       </c>
@@ -13885,7 +13884,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="161" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1</v>
       </c>
@@ -13968,7 +13967,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="162" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1</v>
       </c>
@@ -14051,7 +14050,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="163" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1</v>
       </c>
@@ -14134,7 +14133,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="164" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1</v>
       </c>
@@ -14217,7 +14216,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="165" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1</v>
       </c>
@@ -14300,7 +14299,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="166" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1</v>
       </c>
@@ -14383,7 +14382,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="167" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1</v>
       </c>
@@ -14466,7 +14465,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="168" spans="1:27" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
         <v>1</v>
       </c>
@@ -14549,7 +14548,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="169" spans="1:27" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
         <v>1</v>
       </c>
@@ -14712,7 +14711,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="171" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1</v>
       </c>
@@ -14795,7 +14794,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="172" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1</v>
       </c>
@@ -14878,7 +14877,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="173" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1</v>
       </c>
@@ -14961,7 +14960,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="174" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1</v>
       </c>
@@ -15044,7 +15043,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="175" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>1</v>
       </c>
@@ -15127,7 +15126,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="176" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1</v>
       </c>
@@ -15210,7 +15209,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="177" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1</v>
       </c>
@@ -15293,7 +15292,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="178" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1</v>
       </c>
@@ -15376,7 +15375,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="179" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1</v>
       </c>
@@ -15459,7 +15458,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="180" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1</v>
       </c>
@@ -15542,7 +15541,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="181" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1</v>
       </c>
@@ -15625,7 +15624,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="182" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1</v>
       </c>
@@ -15791,7 +15790,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="184" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>2</v>
       </c>
@@ -15871,7 +15870,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="185" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>2</v>
       </c>
@@ -15951,7 +15950,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="186" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>2</v>
       </c>
@@ -16031,7 +16030,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="187" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>2</v>
       </c>
@@ -16111,7 +16110,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="188" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>2</v>
       </c>
@@ -16191,7 +16190,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="189" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>2</v>
       </c>
@@ -16271,7 +16270,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="190" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>2</v>
       </c>
@@ -16351,7 +16350,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="191" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>2</v>
       </c>
@@ -16431,7 +16430,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="192" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>2</v>
       </c>
@@ -16511,7 +16510,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="193" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2</v>
       </c>
@@ -16591,7 +16590,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="194" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>2</v>
       </c>
@@ -16671,7 +16670,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="195" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>2</v>
       </c>
@@ -16831,7 +16830,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="197" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>2</v>
       </c>
@@ -16911,7 +16910,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="198" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>2</v>
       </c>
@@ -16991,7 +16990,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="199" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>2</v>
       </c>
@@ -17071,7 +17070,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="200" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>2</v>
       </c>
@@ -17151,7 +17150,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="201" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>2</v>
       </c>
@@ -17231,7 +17230,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="202" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>2</v>
       </c>
@@ -17311,7 +17310,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="203" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>2</v>
       </c>
@@ -17391,7 +17390,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="204" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>2</v>
       </c>
@@ -17471,7 +17470,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="205" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>2</v>
       </c>
@@ -17551,7 +17550,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="206" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>2</v>
       </c>
@@ -17631,7 +17630,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="207" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>2</v>
       </c>
@@ -17711,7 +17710,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="208" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>2</v>
       </c>
@@ -17871,7 +17870,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="210" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>2</v>
       </c>
@@ -17951,7 +17950,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="211" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>2</v>
       </c>
@@ -18031,7 +18030,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="212" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>2</v>
       </c>
@@ -18111,7 +18110,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="213" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>2</v>
       </c>
@@ -18191,7 +18190,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="214" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>2</v>
       </c>
@@ -18271,7 +18270,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="215" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>2</v>
       </c>
@@ -18351,7 +18350,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="216" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>2</v>
       </c>
@@ -18432,7 +18431,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="217" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>2</v>
       </c>
@@ -18513,7 +18512,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="218" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>2</v>
       </c>
@@ -18594,7 +18593,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="219" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>2</v>
       </c>
@@ -18675,7 +18674,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="220" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>2</v>
       </c>
@@ -18756,7 +18755,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="221" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>2</v>
       </c>
@@ -18917,7 +18916,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="223" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>2</v>
       </c>
@@ -18998,7 +18997,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="224" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>2</v>
       </c>
@@ -19079,7 +19078,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="225" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>2</v>
       </c>
@@ -19160,7 +19159,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="226" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>2</v>
       </c>
@@ -19241,7 +19240,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="227" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>2</v>
       </c>
@@ -19322,7 +19321,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="228" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>2</v>
       </c>
@@ -19403,7 +19402,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="229" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>2</v>
       </c>
@@ -19484,7 +19483,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="230" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>2</v>
       </c>
@@ -19567,7 +19566,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="231" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>2</v>
       </c>
@@ -19650,7 +19649,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="232" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>2</v>
       </c>
@@ -19733,7 +19732,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="233" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>2</v>
       </c>
@@ -19816,7 +19815,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="234" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>2</v>
       </c>
@@ -19979,7 +19978,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="236" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>3</v>
       </c>
@@ -20057,7 +20056,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="237" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>3</v>
       </c>
@@ -20135,7 +20134,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="238" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>3</v>
       </c>
@@ -20213,7 +20212,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="239" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>3</v>
       </c>
@@ -20291,7 +20290,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="240" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>3</v>
       </c>
@@ -20369,7 +20368,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="241" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>3</v>
       </c>
@@ -20447,7 +20446,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="242" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>3</v>
       </c>
@@ -20525,7 +20524,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="243" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>3</v>
       </c>
@@ -20603,7 +20602,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="244" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>3</v>
       </c>
@@ -20681,7 +20680,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="245" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>3</v>
       </c>
@@ -20759,7 +20758,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="246" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>3</v>
       </c>
@@ -20837,7 +20836,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="247" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>3</v>
       </c>
@@ -20996,7 +20995,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="249" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>3</v>
       </c>
@@ -21074,7 +21073,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="250" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>3</v>
       </c>
@@ -21152,7 +21151,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="251" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>3</v>
       </c>
@@ -21230,7 +21229,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="252" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>3</v>
       </c>
@@ -21308,7 +21307,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="253" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>3</v>
       </c>
@@ -21386,7 +21385,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="254" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>3</v>
       </c>
@@ -21464,7 +21463,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="255" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>3</v>
       </c>
@@ -21542,7 +21541,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="256" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>3</v>
       </c>
@@ -21620,7 +21619,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="257" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>3</v>
       </c>
@@ -21698,7 +21697,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="258" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>3</v>
       </c>
@@ -21776,7 +21775,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="259" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>3</v>
       </c>
@@ -21854,7 +21853,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="260" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>3</v>
       </c>
@@ -22013,7 +22012,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="262" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>3</v>
       </c>
@@ -22091,7 +22090,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="263" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>3</v>
       </c>
@@ -22169,7 +22168,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="264" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>3</v>
       </c>
@@ -22247,7 +22246,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="265" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>3</v>
       </c>
@@ -22325,7 +22324,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="266" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>3</v>
       </c>
@@ -22403,7 +22402,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="267" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>3</v>
       </c>
@@ -22481,7 +22480,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="268" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>3</v>
       </c>
@@ -22559,7 +22558,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="269" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>3</v>
       </c>
@@ -22637,7 +22636,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="270" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>3</v>
       </c>
@@ -22715,7 +22714,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="271" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>3</v>
       </c>
@@ -22793,7 +22792,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="272" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>3</v>
       </c>
@@ -22871,7 +22870,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="273" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>3</v>
       </c>
@@ -23030,7 +23029,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>4</v>
       </c>
@@ -23110,7 +23109,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="276" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>4</v>
       </c>
@@ -23190,7 +23189,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>4</v>
       </c>
@@ -23270,7 +23269,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="278" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>4</v>
       </c>
@@ -23350,7 +23349,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>4</v>
       </c>
@@ -23430,7 +23429,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="280" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>4</v>
       </c>
@@ -23510,7 +23509,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="281" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>4</v>
       </c>
@@ -23590,7 +23589,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="282" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>4</v>
       </c>
@@ -23670,7 +23669,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="283" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>4</v>
       </c>
@@ -23750,7 +23749,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="284" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>4</v>
       </c>
@@ -23830,7 +23829,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="285" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>4</v>
       </c>
@@ -23913,7 +23912,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="286" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>4</v>
       </c>
@@ -24079,7 +24078,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="288" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>4</v>
       </c>
@@ -24159,7 +24158,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="289" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>4</v>
       </c>
@@ -24239,7 +24238,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="290" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>4</v>
       </c>
@@ -24319,7 +24318,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="291" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>4</v>
       </c>
@@ -24399,7 +24398,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="292" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>4</v>
       </c>
@@ -24479,7 +24478,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="293" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>4</v>
       </c>
@@ -24559,7 +24558,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="294" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>4</v>
       </c>
@@ -24639,7 +24638,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="295" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>4</v>
       </c>
@@ -24719,7 +24718,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="296" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>4</v>
       </c>
@@ -24799,7 +24798,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="297" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>4</v>
       </c>
@@ -24879,7 +24878,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="298" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>4</v>
       </c>
@@ -24959,7 +24958,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="299" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>4</v>
       </c>
@@ -25122,7 +25121,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="301" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>4</v>
       </c>
@@ -25202,7 +25201,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="302" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>4</v>
       </c>
@@ -25282,7 +25281,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="303" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>4</v>
       </c>
@@ -25362,7 +25361,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="304" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>4</v>
       </c>
@@ -25442,7 +25441,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="305" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>4</v>
       </c>
@@ -25522,7 +25521,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="306" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>4</v>
       </c>
@@ -25602,7 +25601,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="307" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>4</v>
       </c>
@@ -25682,7 +25681,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="308" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>4</v>
       </c>
@@ -25765,7 +25764,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="309" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>4</v>
       </c>
@@ -25848,7 +25847,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="310" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>4</v>
       </c>
@@ -25931,7 +25930,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="311" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>4</v>
       </c>
@@ -26014,7 +26013,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="312" spans="1:27" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>4</v>
       </c>
@@ -26180,7 +26179,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="314" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>5</v>
       </c>
@@ -26262,7 +26261,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="315" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>5</v>
       </c>
@@ -26344,7 +26343,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="316" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>5</v>
       </c>
@@ -26426,7 +26425,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="317" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>5</v>
       </c>
@@ -26508,7 +26507,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="318" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>5</v>
       </c>
@@ -26590,7 +26589,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="319" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>5</v>
       </c>
@@ -26672,7 +26671,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="320" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>5</v>
       </c>
@@ -26754,7 +26753,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="321" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>5</v>
       </c>
@@ -26836,7 +26835,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="322" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>5</v>
       </c>
@@ -26918,7 +26917,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="323" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>5</v>
       </c>
@@ -27000,7 +26999,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="324" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>5</v>
       </c>
@@ -27082,7 +27081,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="325" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>5</v>
       </c>
@@ -27249,7 +27248,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="327" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>5</v>
       </c>
@@ -27331,7 +27330,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="328" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>5</v>
       </c>
@@ -27413,7 +27412,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="329" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>5</v>
       </c>
@@ -27495,7 +27494,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="330" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>5</v>
       </c>
@@ -27577,7 +27576,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="331" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>5</v>
       </c>
@@ -27659,7 +27658,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="332" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>5</v>
       </c>
@@ -27741,7 +27740,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="333" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>5</v>
       </c>
@@ -27823,7 +27822,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="334" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>5</v>
       </c>
@@ -27905,7 +27904,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="335" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>5</v>
       </c>
@@ -27987,7 +27986,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="336" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>5</v>
       </c>
@@ -28069,7 +28068,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="337" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>5</v>
       </c>
@@ -28151,7 +28150,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="338" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>5</v>
       </c>
@@ -28318,7 +28317,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="340" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>5</v>
       </c>
@@ -28400,7 +28399,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="341" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>5</v>
       </c>
@@ -28482,7 +28481,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="342" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>5</v>
       </c>
@@ -28564,7 +28563,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="343" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>5</v>
       </c>
@@ -28646,7 +28645,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="344" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>5</v>
       </c>
@@ -28728,7 +28727,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="345" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>5</v>
       </c>
@@ -28810,7 +28809,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="346" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>5</v>
       </c>
@@ -28892,7 +28891,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="347" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>5</v>
       </c>
@@ -28974,7 +28973,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="348" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>5</v>
       </c>
@@ -29056,7 +29055,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="349" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>5</v>
       </c>
@@ -29138,7 +29137,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="350" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>5</v>
       </c>
@@ -29220,7 +29219,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="351" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>5</v>
       </c>
@@ -29387,7 +29386,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="353" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>5</v>
       </c>
@@ -29469,7 +29468,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="354" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>5</v>
       </c>
@@ -29551,7 +29550,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="355" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>5</v>
       </c>
@@ -29633,7 +29632,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="356" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>5</v>
       </c>
@@ -29715,7 +29714,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="357" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>5</v>
       </c>
@@ -29797,7 +29796,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="358" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>5</v>
       </c>
@@ -29879,7 +29878,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="359" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>5</v>
       </c>
@@ -29961,7 +29960,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="360" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>5</v>
       </c>
@@ -30043,7 +30042,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="361" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>5</v>
       </c>
@@ -30125,7 +30124,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="362" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>5</v>
       </c>
@@ -30207,7 +30206,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="363" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>5</v>
       </c>
@@ -30289,7 +30288,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="364" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>5</v>
       </c>
@@ -30456,7 +30455,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="366" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>5</v>
       </c>
@@ -30538,7 +30537,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="367" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>5</v>
       </c>
@@ -30620,7 +30619,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="368" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>5</v>
       </c>
@@ -30702,7 +30701,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="369" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>5</v>
       </c>
@@ -30784,7 +30783,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="370" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>5</v>
       </c>
@@ -30866,7 +30865,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="371" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>5</v>
       </c>
@@ -30948,7 +30947,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="372" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>5</v>
       </c>
@@ -31030,7 +31029,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="373" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>5</v>
       </c>
@@ -31112,7 +31111,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="374" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>5</v>
       </c>
@@ -31194,7 +31193,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="375" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>5</v>
       </c>
@@ -31276,7 +31275,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="376" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>5</v>
       </c>
@@ -31358,7 +31357,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="377" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>5</v>
       </c>
@@ -31525,7 +31524,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="379" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>5</v>
       </c>
@@ -31607,7 +31606,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="380" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>5</v>
       </c>
@@ -31689,7 +31688,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="381" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>5</v>
       </c>
@@ -31771,7 +31770,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="382" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>5</v>
       </c>
@@ -31853,7 +31852,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="383" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>5</v>
       </c>
@@ -31935,7 +31934,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="384" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>5</v>
       </c>
@@ -32017,7 +32016,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="385" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>5</v>
       </c>
@@ -32099,7 +32098,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="386" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>5</v>
       </c>
@@ -32181,7 +32180,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="387" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>5</v>
       </c>
@@ -32263,7 +32262,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="388" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>5</v>
       </c>
@@ -32345,7 +32344,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="389" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>5</v>
       </c>
@@ -32427,7 +32426,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="390" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>5</v>
       </c>
@@ -32594,7 +32593,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="392" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>5</v>
       </c>
@@ -32676,7 +32675,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="393" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>5</v>
       </c>
@@ -32758,7 +32757,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="394" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>5</v>
       </c>
@@ -32840,7 +32839,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="395" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>5</v>
       </c>
@@ -32922,7 +32921,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="396" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>5</v>
       </c>
@@ -33004,7 +33003,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="397" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>5</v>
       </c>
@@ -33086,7 +33085,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="398" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>5</v>
       </c>
@@ -33168,7 +33167,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="399" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>5</v>
       </c>
@@ -33251,7 +33250,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="400" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>5</v>
       </c>
@@ -33334,7 +33333,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="401" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>5</v>
       </c>
@@ -33417,7 +33416,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="402" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>5</v>
       </c>
@@ -33500,7 +33499,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="403" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>5</v>
       </c>
@@ -33668,7 +33667,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="405" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>5</v>
       </c>
@@ -33749,7 +33748,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="406" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>5</v>
       </c>
@@ -33830,7 +33829,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="407" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>5</v>
       </c>
@@ -33911,7 +33910,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="408" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>5</v>
       </c>
@@ -33992,7 +33991,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="409" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>5</v>
       </c>
@@ -34073,7 +34072,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="410" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>5</v>
       </c>
@@ -34154,7 +34153,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="411" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>5</v>
       </c>
@@ -34235,7 +34234,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="412" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>5</v>
       </c>
@@ -34292,7 +34291,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="413" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>5</v>
       </c>
@@ -34349,7 +34348,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="414" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>5</v>
       </c>
@@ -34406,7 +34405,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="415" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>5</v>
       </c>
@@ -34463,7 +34462,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="416" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>5</v>
       </c>
@@ -34601,7 +34600,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="418" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>5</v>
       </c>
@@ -34682,7 +34681,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="419" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>5</v>
       </c>
@@ -34763,7 +34762,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="420" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>5</v>
       </c>
@@ -34844,7 +34843,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="421" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>5</v>
       </c>
@@ -34925,7 +34924,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="422" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>5</v>
       </c>
@@ -35006,7 +35005,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="423" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>5</v>
       </c>
@@ -35087,7 +35086,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="424" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>5</v>
       </c>
@@ -35168,7 +35167,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="425" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>5</v>
       </c>
@@ -35249,7 +35248,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="426" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>5</v>
       </c>
@@ -35306,7 +35305,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="427" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>5</v>
       </c>
@@ -35363,7 +35362,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="428" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>5</v>
       </c>
@@ -35420,7 +35419,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="429" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>5</v>
       </c>
@@ -35558,7 +35557,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="431" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>6</v>
       </c>
@@ -35633,7 +35632,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="432" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>6</v>
       </c>
@@ -35708,7 +35707,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="433" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>6</v>
       </c>
@@ -35783,7 +35782,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="434" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>6</v>
       </c>
@@ -35858,7 +35857,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="435" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>6</v>
       </c>
@@ -35933,7 +35932,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="436" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>6</v>
       </c>
@@ -36008,7 +36007,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="437" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>6</v>
       </c>
@@ -36083,7 +36082,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="438" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>6</v>
       </c>
@@ -36158,7 +36157,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="439" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>6</v>
       </c>
@@ -36233,7 +36232,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="440" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>6</v>
       </c>
@@ -36308,7 +36307,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="441" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>6</v>
       </c>
@@ -36384,7 +36383,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="442" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>6</v>
       </c>
@@ -36534,7 +36533,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="444" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>6</v>
       </c>
@@ -36609,7 +36608,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="445" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>6</v>
       </c>
@@ -36684,7 +36683,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="446" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>6</v>
       </c>
@@ -36759,7 +36758,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="447" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>6</v>
       </c>
@@ -36834,7 +36833,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="448" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>6</v>
       </c>
@@ -36909,7 +36908,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="449" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>6</v>
       </c>
@@ -36984,7 +36983,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="450" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>6</v>
       </c>
@@ -37059,7 +37058,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="451" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>6</v>
       </c>
@@ -37134,7 +37133,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="452" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>6</v>
       </c>
@@ -37209,7 +37208,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="453" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>6</v>
       </c>
@@ -37284,7 +37283,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="454" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>6</v>
       </c>
@@ -37359,7 +37358,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="455" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>6</v>
       </c>
@@ -37509,7 +37508,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="457" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>6</v>
       </c>
@@ -37584,7 +37583,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="458" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>6</v>
       </c>
@@ -37659,7 +37658,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="459" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>6</v>
       </c>
@@ -37734,7 +37733,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="460" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>6</v>
       </c>
@@ -37809,7 +37808,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="461" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>6</v>
       </c>
@@ -37884,7 +37883,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="462" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>6</v>
       </c>
@@ -37959,7 +37958,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="463" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>6</v>
       </c>
@@ -38034,7 +38033,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="464" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>6</v>
       </c>
@@ -38109,7 +38108,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="465" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>6</v>
       </c>
@@ -38184,7 +38183,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="466" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>6</v>
       </c>
@@ -38259,7 +38258,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="467" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>6</v>
       </c>
@@ -38334,7 +38333,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="468" spans="1:27" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>6</v>
       </c>
@@ -45234,13 +45233,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA469" xr:uid="{EE02A8E2-55D4-4C00-B027-F30C5B4D1901}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Water_control"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AA866" xr:uid="{EE02A8E2-55D4-4C00-B027-F30C5B4D1901}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA261">
     <sortCondition ref="I2:I261"/>
   </sortState>
